--- a/RedCap_SubjectsInfo/STARR.sn.subject.info.xlsx
+++ b/RedCap_SubjectsInfo/STARR.sn.subject.info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niej\Documents\UTHSC_cellranger_codes_files\RedCap_SubjectsInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46ED59E-A89D-43A1-AAE7-C5456EB34402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F050BE6-C0E0-4625-9896-6CDC25D22D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
